--- a/项目文档/测试用例/全文工具箱测试用例-lq.xlsx
+++ b/项目文档/测试用例/全文工具箱测试用例-lq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>用例编号</t>
   </si>
@@ -49,7 +49,10 @@
     <t>全文工具箱</t>
   </si>
   <si>
-    <t>在更新下载安装包时点击更新，显示正在更新中</t>
+    <t>点击新建任务，创建一个赌博模型任务。</t>
+  </si>
+  <si>
+    <t>在配置窗体中合理输入后，点确定，左侧出现对应的创建成功的任务。</t>
   </si>
   <si>
     <t>打开设置-检查更新-点击更新-下载安装包-点击更新</t>
@@ -58,7 +61,7 @@
     <t>no(重复点击更新后会立即显示下载成功，请重启更新软件，然而重启程序后会报出，安装包解压失败的问题)</t>
   </si>
   <si>
-    <t>宋晨</t>
+    <t>卢琪</t>
   </si>
   <si>
     <t>全文工具箱02</t>
@@ -174,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +206,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -210,11 +228,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,66 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -294,54 +313,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +549,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,11 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,21 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -619,17 +621,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,148 +652,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1122,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1179,223 +1175,223 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/测试用例/全文工具箱测试用例-lq.xlsx
+++ b/项目文档/测试用例/全文工具箱测试用例-lq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>用例编号</t>
   </si>
@@ -49,16 +49,16 @@
     <t>全文工具箱</t>
   </si>
   <si>
-    <t>点击新建任务，创建一个赌博模型任务。</t>
-  </si>
-  <si>
-    <t>在配置窗体中合理输入后，点确定，左侧出现对应的创建成功的任务。</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-点击更新</t>
-  </si>
-  <si>
-    <t>no(重复点击更新后会立即显示下载成功，请重启更新软件，然而重启程序后会报出，安装包解压失败的问题)</t>
+    <t>点击左上角+新建任务，创建一个任务。</t>
+  </si>
+  <si>
+    <t>出现全文工具箱配置窗口，界面无错别字，无偏移，各元素无明显异常。</t>
+  </si>
+  <si>
+    <t>左侧全文工具-左上角新建任务</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>卢琪</t>
@@ -67,109 +67,178 @@
     <t>全文工具箱02</t>
   </si>
   <si>
-    <t>在更新下载安装包时点击取消，显示正在更新中</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-点击取消</t>
-  </si>
-  <si>
-    <t>no(下载时点击取消后会立即显示下载成功，请重启更新软件，然而重启程序后会报出，安装包解压失败的问题)</t>
+    <t>点击左上角+新建任务，创建一个任务时，各输入框参数校验正常</t>
+  </si>
+  <si>
+    <t>全文工具箱配置界面，任务名称，用户名，密码，IP输入框必填且满足相关的校验标准</t>
+  </si>
+  <si>
+    <t>左侧全文工具-左上角新建任务-各输入框随机填-校验合理</t>
   </si>
   <si>
     <t>全文工具箱03</t>
   </si>
   <si>
-    <t>在更新下载安装包时点击检查更新页面的叉叉，显示正在更新中</t>
-  </si>
-  <si>
-    <t>在更新下载安装包时点击叉叉，显示正在更新中</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-点击检查更新页面叉叉</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>新建任务时，连通测试 工作正常</t>
+  </si>
+  <si>
+    <t>新建任务时，输入正确信息，连通测试工作正常</t>
+  </si>
+  <si>
+    <t>左侧全文工具-左上角新建任务-输入正确信息-点击连通测试按钮</t>
+  </si>
+  <si>
+    <t>新建任务时，当网络不通或信息填写不正确时，连通测试提示相应的失败信息</t>
+  </si>
+  <si>
+    <t>新建任务时，输入错误IP或密码，或者网络不通时，连通测试都能正确识别并提醒</t>
+  </si>
+  <si>
+    <t>左侧全文工具-左上角新建任务-输入错误信息-点击连通测试按钮</t>
   </si>
   <si>
     <t>全文工具箱04</t>
   </si>
   <si>
-    <t>在更新下载安装包时点击弹出正在更新的小窗口的叉叉，显示正在更新中，无法关闭</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-点击弹出页面叉叉</t>
+    <t>查询任务信息</t>
+  </si>
+  <si>
+    <t>鼠标双击已有任务，或者右键单击菜单，出现任务信息窗口，各界面元素无明显异常</t>
+  </si>
+  <si>
+    <t>左侧全文工具-选择任意任务-鼠标双击</t>
   </si>
   <si>
     <t>全文工具箱05</t>
   </si>
   <si>
-    <t>在更新下载安装包突然断网</t>
-  </si>
-  <si>
-    <t>在下载安装包时突然断网，安装包下载会突然停止</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-断网</t>
+    <t>删除任务</t>
+  </si>
+  <si>
+    <t>右键菜单删除对应任务，左侧面板任务信息消失，下次再打开C2,任务不存在，服务器上对应目录文件删除。</t>
+  </si>
+  <si>
+    <t>左侧全文工具-选择任意任务-鼠标单击右键菜单-删除任务</t>
   </si>
   <si>
     <t>全文工具箱06</t>
   </si>
   <si>
-    <t>在下载安装包时断网后又重新有网</t>
-  </si>
-  <si>
-    <t>在下载安装包时断网后又重新有网，继续恢复下载</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-断网-联网</t>
-  </si>
-  <si>
-    <t>no（无法继续下载）</t>
+    <t>断网时，删除任务</t>
+  </si>
+  <si>
+    <t>右键菜单删除对应任务，左侧面板任务信息消失，下次再打开C2,任务不存在，程序无异常崩溃。</t>
   </si>
   <si>
     <t>全文工具箱07</t>
   </si>
   <si>
-    <t>在下载安装包之后又重启，会显示安装包已经更新</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-重启程序</t>
+    <t>帮助说明工作正常</t>
+  </si>
+  <si>
+    <t>右上角帮助说明工作正常，帮助文档内容无明显低级错误</t>
+  </si>
+  <si>
+    <t>左侧全文工具-左上角帮助说明</t>
   </si>
   <si>
     <t>全文工具箱08</t>
   </si>
   <si>
-    <t>更新后在重新打开检查更新界面，显示已经是最新版本</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-重启程序-查看检查更新界面</t>
+    <t>下载功能正常</t>
+  </si>
+  <si>
+    <t>任务完成时，可以将结果文件下载，下载的文件可以正常打开</t>
+  </si>
+  <si>
+    <t>左侧全文工具-任务详情-下载结果</t>
   </si>
   <si>
     <t>全文工具箱09</t>
   </si>
   <si>
-    <t>更新完成后在点击更新，提示窗口为当前版本已经是最新版本了</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-重启程序-查看检查更新界面-点击更新</t>
-  </si>
-  <si>
-    <t>no(提示下载成功，请重新更新软件，但是我已经重新更新软件了)</t>
+    <t>新建涉赌任务正常</t>
+  </si>
+  <si>
+    <t>创建涉赌任务正常，有可下载结果</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择涉赌模型</t>
   </si>
   <si>
     <t>全文工具箱10</t>
   </si>
   <si>
-    <t>在当前已为最新版本的情况下，删除updata中的zip文件，点击更新，还是会下载最新的安装包</t>
-  </si>
-  <si>
-    <t>在当前已为最新版本的情况下，删除updata中的zip文件，点击更新，提示当前版本已经是最新版本，没有可更新版本</t>
-  </si>
-  <si>
-    <t>打开设置-检查更新-点击更新-下载安装包-重启程序-删除下载好的安装包-点击更新</t>
-  </si>
-  <si>
-    <t>no（还是继续下载安装包）</t>
+    <t>新建涉枪任务正常</t>
+  </si>
+  <si>
+    <t>创建涉枪任务正常，有可下载结果</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择涉枪模型</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>全文工具箱11</t>
+  </si>
+  <si>
+    <t>新建涉黄任务正常</t>
+  </si>
+  <si>
+    <t>创建涉黄任务正常，有可下载结果</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择涉黄模型</t>
+  </si>
+  <si>
+    <t>全文工具箱12</t>
+  </si>
+  <si>
+    <t>新建飞机场任务正常</t>
+  </si>
+  <si>
+    <t>创建飞机场任务正常，有可下载结果</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择飞机场模型</t>
+  </si>
+  <si>
+    <t>全文工具箱13</t>
+  </si>
+  <si>
+    <t>飞机场模型下载</t>
+  </si>
+  <si>
+    <t>飞机场任务可下载结果时，下载正常</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择飞机场模型-点击下载结果</t>
+  </si>
+  <si>
+    <t>全文工具箱14</t>
+  </si>
+  <si>
+    <t>涉枪模型下载</t>
+  </si>
+  <si>
+    <t>涉枪任务可下载结果时，下载正常</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择涉枪模型-点击下载结果</t>
+  </si>
+  <si>
+    <t>全文工具箱15</t>
+  </si>
+  <si>
+    <t>涉黄模型下载</t>
+  </si>
+  <si>
+    <t>涉黄任务可下载结果时，下载正常</t>
+  </si>
+  <si>
+    <t>左侧全文工具-新建任务-选择涉黄模型-点击下载结果</t>
   </si>
 </sst>
 </file>
@@ -177,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,84 +277,85 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,47 +367,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,187 +427,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,21 +618,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,6 +632,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,18 +677,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,11 +712,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +736,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1198,13 +1267,13 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1227,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1235,22 +1304,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1258,22 +1327,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1281,22 +1350,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1304,22 +1373,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -1327,22 +1396,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -1350,13 +1419,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -1365,7 +1434,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1373,24 +1442,162 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
     </row>
